--- a/TestData/loginData.xlsx
+++ b/TestData/loginData.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">testUser</t>
   </si>
   <si>
-    <t xml:space="preserve">Paswd3*2.1</t>
+    <t xml:space="preserve">paswd3*2.1</t>
   </si>
   <si>
     <t xml:space="preserve">Pass</t>
@@ -233,10 +233,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
